--- a/medicine/Psychotrope/Château_de_Luins/Château_de_Luins.xlsx
+++ b/medicine/Psychotrope/Château_de_Luins/Château_de_Luins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Luins</t>
+          <t>Château_de_Luins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Luins est un château située dans le canton de Vaud, en Suisse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Luins</t>
+          <t>Château_de_Luins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet édifice, est attesté en 1315, alors aux mains de la famille de Cossonay. Le domaine, inféodé en 1409 au sire de Mont-le-Vieux, est acquis en 1558 par Jean Steiger et passe par alliance en 1582 à la famille de Watteville. Puis on trouve ici Hans Rudolf Wurstemberger, allié à Anna Wyttenbach. Ce dernier procède en 1612 à d’importants travaux, marqués à l'intérieur, sur une porte, par ses armoiries. À sa mort, sans doute, en 1617, le château revient aux Watteville, qui le conservent durant deux siècles. Jean-Jacques de Watteville entreprend lui aussi de grands travaux en 1676 et fait construire deux ans plus tard la maison du vigneron.
-Après la révolution vaudoise, le banquier Jacques de Pourtalès acquiert la demeure en 1809 ; celle-ci passe en 1856 à Elisa Carlixte de Pourtalès, épouse du marquis Charles Alexandre de Ganay, puis en 1909 au marchand de vin Hermann Trüssel[2],[3]. Le château est inscrit en 1991 à l’inventaire cantonal du patrimoine[1], et figure comme bien culturel suisse d'importance nationale[4] ; il est aujourd’hui propriété de la famille Baechtold, descendants de Friederich Trüssel, qui exploite encore le vignoble[5].
+Après la révolution vaudoise, le banquier Jacques de Pourtalès acquiert la demeure en 1809 ; celle-ci passe en 1856 à Elisa Carlixte de Pourtalès, épouse du marquis Charles Alexandre de Ganay, puis en 1909 au marchand de vin Hermann Trüssel,. Le château est inscrit en 1991 à l’inventaire cantonal du patrimoine, et figure comme bien culturel suisse d'importance nationale ; il est aujourd’hui propriété de la famille Baechtold, descendants de Friederich Trüssel, qui exploite encore le vignoble.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Luins</t>
+          <t>Château_de_Luins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Domaine viticole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine viticole du château de Luins s'étend sur 10 hectares[6]. La production de domaine se compose à 95 % de chasselas, ainsi que d'un peu de pinot noir et de chardonnay[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine viticole du château de Luins s'étend sur 10 hectares. La production de domaine se compose à 95 % de chasselas, ainsi que d'un peu de pinot noir et de chardonnay.
 </t>
         </is>
       </c>
